--- a/Лаба 3.2.6/Лист Microsoft Excel.xlsx
+++ b/Лаба 3.2.6/Лист Microsoft Excel.xlsx
@@ -9,23 +9,18 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>U_0, Вт</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>R_1/R_2</t>
   </si>
   <si>
-    <t>R_0, Ом</t>
-  </si>
-  <si>
     <t>2a, м</t>
   </si>
   <si>
@@ -33,6 +28,57 @@
   </si>
   <si>
     <t>x, см</t>
+  </si>
+  <si>
+    <t>R_кр, кОм</t>
+  </si>
+  <si>
+    <t>x_1, см</t>
+  </si>
+  <si>
+    <t>x_2, см</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>T, с</t>
+  </si>
+  <si>
+    <t>U_0, В</t>
+  </si>
+  <si>
+    <t>C, мкФ</t>
+  </si>
+  <si>
+    <t>R_0, кОм</t>
+  </si>
+  <si>
+    <t>C_I</t>
+  </si>
+  <si>
+    <t>I/x, А/мм</t>
+  </si>
+  <si>
+    <t>Тэта</t>
+  </si>
+  <si>
+    <t>1/тэта^2</t>
+  </si>
+  <si>
+    <t>I, 10^(-8)А</t>
+  </si>
+  <si>
+    <t>1/тэта^2+1/4pi^2</t>
+  </si>
+  <si>
+    <t>(R+R_0)^2, *10^2 кОм^2</t>
+  </si>
+  <si>
+    <t>R_кр</t>
+  </si>
+  <si>
+    <t>dY/dX, Ом^(-2)</t>
   </si>
 </sst>
 </file>
@@ -375,10 +421,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <f>68/150*3</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1/2000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>2.8</v>
+      </c>
+      <c r="F2">
+        <f>$B$1*$B$2/(D2+$B$3)/1000*100000000</f>
+        <v>1.3444049031237642</v>
+      </c>
+      <c r="G2">
+        <f>4.743*10^(-10)</f>
+        <v>4.7430000000000001E-10</v>
+      </c>
+      <c r="H2">
+        <f>G2*B4</f>
+        <v>1.04346E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>3.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">$B$1*$B$2/(D3+$B$3)/1000*100000000</f>
+        <v>1.6757023164120257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.3041788143828956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6.4272211720226844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>14.9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.0981210855949888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>16.7</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7.9254079254079244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>21.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>8.9709762532981525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>3.47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>18.5</v>
+      </c>
+      <c r="F2">
+        <v>14.3</v>
+      </c>
+      <c r="G2">
+        <f>1/2000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I2">
+        <f>LN(E2/F2)</f>
+        <v>0.25751119481841755</v>
+      </c>
+      <c r="J2">
+        <f>1/I2^2</f>
+        <v>15.080223291528968</v>
+      </c>
+      <c r="K2">
+        <f>(D2+Лист1!$B$3)^2/100</f>
+        <v>1.119364</v>
+      </c>
+      <c r="L2">
+        <f>J2+1/(2*PI())^2</f>
+        <v>15.105553587439553</v>
+      </c>
+      <c r="M2">
+        <f>2.0543*10^(-8)</f>
+        <v>2.0543000000000001E-8</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(1/M2)/(2*PI())-Лист1!B3*1000</f>
+        <v>530.42236052330804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>10.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="0">1/2000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="1">LN(E3/F3)</f>
+        <v>0.28768207245178085</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">1/I3^2</f>
+        <v>12.082989625169777</v>
+      </c>
+      <c r="K3">
+        <f>(D3+Лист1!$B$3)^2/100</f>
+        <v>2.1257640000000002</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="3">J3+1/(2*PI())^2</f>
+        <v>12.108319921080362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>12.6</v>
+      </c>
+      <c r="F4">
+        <v>9.4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.29298712468147398</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>11.649383125331711</v>
+      </c>
+      <c r="K4">
+        <f>(D4+Лист1!$B$3)^2/100</f>
+        <v>2.7489639999999995</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>11.674713421242297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>12.6</v>
+      </c>
+      <c r="F5">
+        <v>9.4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.29298712468147398</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>11.649383125331711</v>
+      </c>
+      <c r="K5">
+        <f>(D5+Лист1!$B$3)^2/100</f>
+        <v>3.0905639999999992</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>11.674713421242297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>11.5</v>
+      </c>
+      <c r="F6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.26759531388504348</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>13.965065993807066</v>
+      </c>
+      <c r="K6">
+        <f>(D6+Лист1!$B$3)^2/100</f>
+        <v>3.8337639999999995</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>13.990396289717651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>10.7</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.29080219978802452</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>11.825094637138449</v>
+      </c>
+      <c r="K7">
+        <f>(D7+Лист1!$B$3)^2/100</f>
+        <v>4.6569639999999994</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>11.850424933049034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F8">
+        <v>6.4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.24783616390458107</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>16.280608891810839</v>
+      </c>
+      <c r="K8">
+        <f>(D8+Лист1!$B$3)^2/100</f>
+        <v>7.6065639999999997</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>16.305939187721425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>7.4</v>
+      </c>
+      <c r="F9">
+        <v>5.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.24362208265775051</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>16.848711615740772</v>
+      </c>
+      <c r="K9">
+        <f>(D9+Лист1!$B$3)^2/100</f>
+        <v>9.9729639999999993</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>16.874041911651357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>6.6</v>
+      </c>
+      <c r="F10">
+        <v>5.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.21936282847430366</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>20.781358067410384</v>
+      </c>
+      <c r="K10">
+        <f>(D10+Лист1!$B$3)^2/100</f>
+        <v>12.659363999999998</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>20.806688363320969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>31.5</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H11">
+        <v>6.91</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>4.8790164169432049E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>420.08332341560231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,105 +963,135 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>68/150*3</f>
-        <v>1.3599999999999999</v>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <f>1/2000</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
+      <c r="A2" s="1">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="B2">
+        <f>66/150*3</f>
+        <v>1.32</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>2.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>580</v>
-      </c>
       <c r="D3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>3.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>13.6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>16.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>21.7</v>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Лаба 3.2.6/Лист Microsoft Excel.xlsx
+++ b/Лаба 3.2.6/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>R_1/R_2</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>dY/dX, Ом^(-2)</t>
+  </si>
+  <si>
+    <t>(R+R_0)^(-1), *10 (-2) кОм^(-1)</t>
+  </si>
+  <si>
+    <t>x/e, см</t>
+  </si>
+  <si>
+    <t>Cqкр</t>
   </si>
 </sst>
 </file>
@@ -578,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +709,14 @@
         <f t="shared" ref="L3:L10" si="3">J3+1/(2*PI())^2</f>
         <v>12.108319921080362</v>
       </c>
+      <c r="M3">
+        <f>0.6728*10^(-8)</f>
+        <v>6.7279999999999999E-9</v>
+      </c>
+      <c r="N3">
+        <f>SQRT(1/M3)/(2*PI())-Лист1!B4*1000</f>
+        <v>-259.66311173037479</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4">
@@ -730,6 +747,14 @@
       <c r="L4">
         <f t="shared" si="3"/>
         <v>11.674713421242297</v>
+      </c>
+      <c r="M4">
+        <f>1.05*10^(-8)</f>
+        <v>1.0500000000000001E-8</v>
+      </c>
+      <c r="N4">
+        <f>SQRT(1/M4)/(2*PI())-Лист1!B5*1000</f>
+        <v>1553.1932057350029</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -951,15 +976,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,8 +1005,20 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>1/20</f>
         <v>0.05</v>
@@ -994,101 +1036,160 @@
       <c r="E2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>E2/EXP(1)</f>
+        <v>6.9897093822574048</v>
+      </c>
+      <c r="H2">
+        <v>2.25</v>
+      </c>
+      <c r="I2">
+        <f>Лист1!B4*A2*B2*C2*10^(-6)/(G2*10)</f>
+        <v>4.1546791736026675E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>(D3+Лист1!$B$3)^(-1)*100</f>
+        <v>2.8105677346824058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>(D4+Лист1!$B$3)^(-1)*100</f>
+        <v>3.2701111837802483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>(D5+Лист1!$B$3)^(-1)*100</f>
+        <v>4.8590864917395535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>(D6+Лист1!$B$3)^(-1)*100</f>
+        <v>9.4517958412098295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>(D7+Лист1!$B$3)^(-1)*100</f>
+        <v>17.921146953405017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>(D8+Лист1!$B$3)^(-1)*100</f>
+        <v>21.834061135371179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>3.5</v>
       </c>
       <c r="E9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>(D9+Лист1!$B$3)^(-1)*100</f>
+        <v>24.509803921568626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>(D10+Лист1!$B$3)^(-1)*100</f>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>2.5</v>
       </c>
       <c r="E11">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>(D11+Лист1!$B$3)^(-1)*100</f>
+        <v>32.467532467532465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>(D12+Лист1!$B$3)^(-1)*100</f>
+        <v>38.759689922480618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>1.5</v>
       </c>
       <c r="E13">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>(D13+Лист1!$B$3)^(-1)*100</f>
+        <v>48.076923076923073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
         <v>4.8</v>
+      </c>
+      <c r="F14">
+        <f>(D14+Лист1!$B$3)^(-1)*100</f>
+        <v>63.291139240506325</v>
       </c>
     </row>
   </sheetData>

--- a/Лаба 3.2.6/Лист Microsoft Excel.xlsx
+++ b/Лаба 3.2.6/Лист Microsoft Excel.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,14 +436,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1.04346E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1.6757023164120257</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>3.3041788143828956</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>10</v>
       </c>
@@ -542,7 +542,7 @@
         <v>6.4272211720226844</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>7.0981210855949888</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D7">
         <v>8</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7.9254079254079244</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>7</v>
       </c>
@@ -587,19 +587,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.15234375" customWidth="1"/>
+    <col min="13" max="13" width="14.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D2">
         <v>10</v>
       </c>
@@ -679,7 +679,7 @@
         <v>530.42236052330804</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D3">
         <v>14</v>
       </c>
@@ -718,7 +718,7 @@
         <v>-259.66311173037479</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D4">
         <v>16</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1553.1932057350029</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>17</v>
       </c>
@@ -788,7 +788,7 @@
         <v>11.674713421242297</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>19</v>
       </c>
@@ -819,7 +819,7 @@
         <v>13.990396289717651</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D7">
         <v>21</v>
       </c>
@@ -850,7 +850,7 @@
         <v>11.850424933049034</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>27</v>
       </c>
@@ -881,7 +881,7 @@
         <v>16.305939187721425</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>31</v>
       </c>
@@ -912,7 +912,7 @@
         <v>16.874041911651357</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D10">
         <v>35</v>
       </c>
@@ -943,7 +943,7 @@
         <v>20.806688363320969</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -978,18 +978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.69140625" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <f>1/20</f>
         <v>0.05</v>
@@ -1048,7 +1048,7 @@
         <v>4.1546791736026675E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D3">
         <v>35</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>2.8105677346824058</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D4">
         <v>30</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>3.2701111837802483</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>20</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>4.8590864917395535</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9.4517958412098295</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D7">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>17.921146953405017</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>4</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>21.834061135371179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>3.5</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>24.509803921568626</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D10">
         <v>3</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>27.932960893854748</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D11">
         <v>2.5</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>32.467532467532465</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D12">
         <v>2</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>38.759689922480618</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>1.5</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>48.076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>1</v>
       </c>

--- a/Лаба 3.2.6/Лист Microsoft Excel.xlsx
+++ b/Лаба 3.2.6/Лист Microsoft Excel.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,14 +436,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.15234375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1.04346E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1.6757023164120257</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
         <v>3.3041788143828956</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>10</v>
       </c>
@@ -542,7 +542,7 @@
         <v>6.4272211720226844</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>7.0981210855949888</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>8</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7.9254079254079244</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>7</v>
       </c>
@@ -588,18 +588,18 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.84375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="16.15234375" customWidth="1"/>
-    <col min="13" max="13" width="14.69140625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>10</v>
       </c>
@@ -671,15 +671,15 @@
         <v>15.105553587439553</v>
       </c>
       <c r="M2">
-        <f>2.0543*10^(-8)</f>
-        <v>2.0543000000000001E-8</v>
+        <f>1.05*10^(-8)</f>
+        <v>1.0500000000000001E-8</v>
       </c>
       <c r="N2">
-        <f>SQRT(1/M2)/(2*PI())-Лист1!B3*1000</f>
-        <v>530.42236052330804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <f>SQRT(1/M2)/(2*PI())-Лист1!B5*1000</f>
+        <v>1553.1932057350029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>14</v>
       </c>
@@ -709,16 +709,8 @@
         <f t="shared" ref="L3:L10" si="3">J3+1/(2*PI())^2</f>
         <v>12.108319921080362</v>
       </c>
-      <c r="M3">
-        <f>0.6728*10^(-8)</f>
-        <v>6.7279999999999999E-9</v>
-      </c>
-      <c r="N3">
-        <f>SQRT(1/M3)/(2*PI())-Лист1!B4*1000</f>
-        <v>-259.66311173037479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>16</v>
       </c>
@@ -748,16 +740,8 @@
         <f t="shared" si="3"/>
         <v>11.674713421242297</v>
       </c>
-      <c r="M4">
-        <f>1.05*10^(-8)</f>
-        <v>1.0500000000000001E-8</v>
-      </c>
-      <c r="N4">
-        <f>SQRT(1/M4)/(2*PI())-Лист1!B5*1000</f>
-        <v>1553.1932057350029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>17</v>
       </c>
@@ -788,7 +772,7 @@
         <v>11.674713421242297</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>19</v>
       </c>
@@ -819,7 +803,7 @@
         <v>13.990396289717651</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>21</v>
       </c>
@@ -850,7 +834,7 @@
         <v>11.850424933049034</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>27</v>
       </c>
@@ -881,7 +865,7 @@
         <v>16.305939187721425</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>31</v>
       </c>
@@ -912,7 +896,7 @@
         <v>16.874041911651357</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>35</v>
       </c>
@@ -943,7 +927,7 @@
         <v>20.806688363320969</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -982,14 +966,14 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="28.69140625" customWidth="1"/>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>1/20</f>
         <v>0.05</v>
@@ -1048,7 +1032,7 @@
         <v>4.1546791736026675E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>35</v>
       </c>
@@ -1060,7 +1044,7 @@
         <v>2.8105677346824058</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>30</v>
       </c>
@@ -1072,7 +1056,7 @@
         <v>3.2701111837802483</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>20</v>
       </c>
@@ -1084,7 +1068,7 @@
         <v>4.8590864917395535</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>10</v>
       </c>
@@ -1096,7 +1080,7 @@
         <v>9.4517958412098295</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>5</v>
       </c>
@@ -1108,7 +1092,7 @@
         <v>17.921146953405017</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>4</v>
       </c>
@@ -1120,7 +1104,7 @@
         <v>21.834061135371179</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>3.5</v>
       </c>
@@ -1132,7 +1116,7 @@
         <v>24.509803921568626</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>3</v>
       </c>
@@ -1144,7 +1128,7 @@
         <v>27.932960893854748</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>2.5</v>
       </c>
@@ -1156,7 +1140,7 @@
         <v>32.467532467532465</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>2</v>
       </c>
@@ -1168,7 +1152,7 @@
         <v>38.759689922480618</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>1.5</v>
       </c>
@@ -1180,7 +1164,7 @@
         <v>48.076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1</v>
       </c>
